--- a/data/trans_orig/Q23_1_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q23_1_2015-Provincia-trans_orig.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>16,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>17,21</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,0; 17,63</t>
+          <t>15,91; 17,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 19,22</t>
+          <t>17,49; 19,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,99</t>
+          <t>16,61; 17,9</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,61</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,12</t>
+          <t>17,11</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 17,35</t>
+          <t>16,38; 17,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,35</t>
+          <t>17,17; 18,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,56</t>
+          <t>16,8; 17,54</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,13</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>16,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,67; 16,76</t>
+          <t>15,68; 16,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,86</t>
+          <t>16,13; 16,87</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,48</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 17,39</t>
+          <t>16,59; 17,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,94</t>
+          <t>17,04; 17,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,47</t>
+          <t>16,89; 17,47</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,91</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>17,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>17,75</t>
+          <t>17,76</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,24; 19,08</t>
+          <t>17,25; 19,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 18,44</t>
+          <t>17,02; 18,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 18,5</t>
+          <t>17,27; 18,5</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,25</t>
+          <t>16,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>16,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>16,26</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,81; 17,24</t>
+          <t>15,8; 17,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 16,81</t>
+          <t>15,92; 16,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 16,86</t>
+          <t>15,91; 16,84</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,96</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,43</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,48</t>
+          <t>16,52; 17,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,52</t>
+          <t>17,48; 18,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,84</t>
+          <t>17,09; 17,83</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>16,35</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,06; 16,49</t>
+          <t>15,97; 16,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,4</t>
+          <t>16,63; 17,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,7</t>
+          <t>16,1; 16,61</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16,64</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>16,9</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,46; 16,84</t>
+          <t>16,33; 16,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,66</t>
+          <t>17,26; 17,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,11</t>
+          <t>16,67; 17,07</t>
         </is>
       </c>
     </row>
